--- a/analysis/edcr/out/threshold/magnesium_shift_new_20_test_results.xlsx
+++ b/analysis/edcr/out/threshold/magnesium_shift_new_20_test_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Model</t>
   </si>
@@ -79,13 +79,13 @@
     <t>CNN_32_filters_7_kernels_predictions</t>
   </si>
   <si>
-    <t>RNN_32_units_predictions</t>
-  </si>
-  <si>
-    <t>CNN_256_filters_5_kernels_predictions</t>
-  </si>
-  <si>
-    <t>CNN_Attention_256_filters_5_kernels_predictions</t>
+    <t>RNN_256_units_predictions</t>
+  </si>
+  <si>
+    <t>CNN_32_filters_5_kernels_predictions</t>
+  </si>
+  <si>
+    <t>LSTM_32_layers_predictions</t>
   </si>
   <si>
     <t>correction</t>
@@ -94,7 +94,10 @@
     <t>detection_correction</t>
   </si>
   <si>
-    <t>Best Recall, Best F1</t>
+    <t>Best F1</t>
+  </si>
+  <si>
+    <t>Best Recall</t>
   </si>
   <si>
     <t>Best Precision</t>
@@ -661,52 +664,55 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.203125</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="E4">
-        <v>0.5492957746478874</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="F4">
-        <v>0.2965779467680609</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="G4">
-        <v>0.203125</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="H4">
-        <v>0.5492957746478874</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="I4">
-        <v>0.2965779467680609</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="J4">
         <v>0.1924119241192412</v>
       </c>
       <c r="K4">
-        <v>0.203125</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="L4">
-        <v>0.5492957746478874</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2965779467680609</v>
+        <v>0.3294663573085847</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.001691495965239015</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00312603096825842</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00865079365079382</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.009579052038449016</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +726,55 @@
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.203125</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="E5">
-        <v>0.5492957746478874</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="F5">
-        <v>0.2965779467680609</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="G5">
-        <v>0.203125</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="H5">
-        <v>0.5492957746478874</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="I5">
-        <v>0.2965779467680609</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="J5">
         <v>0.1924119241192412</v>
       </c>
       <c r="K5">
-        <v>0.2456140350877193</v>
+        <v>0.1945205479452055</v>
       </c>
       <c r="L5">
-        <v>0.7887323943661971</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3745819397993311</v>
+        <v>0.3256880733944954</v>
       </c>
       <c r="N5">
-        <v>0.04248903508771928</v>
+        <v>-0.001010178311777715</v>
       </c>
       <c r="O5">
-        <v>0.2394366197183098</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="P5">
-        <v>0.0780039930312702</v>
+        <v>-0.0006522529458308779</v>
       </c>
       <c r="Q5">
-        <v>0.2091767881241565</v>
+        <v>-0.00516634050880603</v>
       </c>
       <c r="R5">
-        <v>0.4358974358974357</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="S5">
-        <v>0.2630134636823597</v>
+        <v>-0.001998689384010333</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,34 +788,34 @@
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E6">
-        <v>0.2816901408450704</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="F6">
-        <v>0.4123711340206186</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="G6">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H6">
-        <v>0.2816901408450704</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="I6">
-        <v>0.4123711340206186</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="J6">
         <v>0.1924119241192412</v>
       </c>
       <c r="K6">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>0.2816901408450704</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="M6">
-        <v>0.4123711340206186</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -821,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.970645868709653E-16</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,34 +850,34 @@
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E7">
-        <v>0.2816901408450704</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="F7">
-        <v>0.4123711340206186</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="G7">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H7">
-        <v>0.2816901408450704</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="I7">
-        <v>0.4123711340206186</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="J7">
         <v>0.1924119241192412</v>
       </c>
       <c r="K7">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>0.2816901408450704</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="M7">
-        <v>0.4123711340206186</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -883,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.970645868709653E-16</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +912,55 @@
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0.55</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8">
-        <v>0.1549295774647887</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="F8">
-        <v>0.2417582417582417</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="G8">
-        <v>0.55</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8">
-        <v>0.1549295774647887</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="I8">
-        <v>0.2417582417582417</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="J8">
         <v>0.1924119241192412</v>
       </c>
       <c r="K8">
-        <v>0.5507246376811594</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8">
-        <v>0.5352112676056338</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="M8">
-        <v>0.5428571428571428</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="N8">
-        <v>0.0007246376811593791</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3802816901408451</v>
+        <v>1.387778780781446E-17</v>
       </c>
       <c r="P8">
-        <v>0.3010989010989011</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="Q8">
-        <v>0.001317523056653416</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2.454545454545455</v>
+        <v>1.970645868709653E-16</v>
       </c>
       <c r="S8">
-        <v>1.245454545454546</v>
+        <v>2.164934898019055E-16</v>
       </c>
       <c r="T8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,40 +974,40 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.55</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9">
-        <v>0.1549295774647887</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="F9">
-        <v>0.2417582417582417</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="G9">
-        <v>0.55</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H9">
-        <v>0.1549295774647887</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="I9">
-        <v>0.2417582417582417</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="J9">
         <v>0.1924119241192412</v>
       </c>
       <c r="K9">
-        <v>0.55</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>0.1549295774647887</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="M9">
-        <v>0.2417582417582417</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.775557561562891E-17</v>
+        <v>1.387778780781446E-17</v>
       </c>
       <c r="P9">
         <v>2.775557561562891E-17</v>
@@ -1007,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1.791496244281503E-16</v>
+        <v>1.970645868709653E-16</v>
       </c>
       <c r="S9">
-        <v>1.148071536828287E-16</v>
+        <v>2.164934898019055E-16</v>
       </c>
       <c r="T9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/out/threshold/magnesium_shift_new_20_test_results.xlsx
+++ b/analysis/edcr/out/threshold/magnesium_shift_new_20_test_results.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
   <si>
+    <t>Exclude</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -86,6 +89,18 @@
   </si>
   <si>
     <t>LSTM_32_layers_predictions</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>CNNA</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
   </si>
   <si>
     <t>correction</t>
@@ -461,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,501 +543,2584 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
         <v>0.5168539325842697</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.647887323943662</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.5750000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.5168539325842697</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.647887323943662</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.5750000000000001</v>
       </c>
-      <c r="J2">
-        <v>0.1924119241192412</v>
-      </c>
       <c r="K2">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L2">
         <v>0.5306122448979592</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.7323943661971831</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.6153846153846154</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.01375831231368951</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.08450704225352113</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.04038461538461535</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.02661934338952971</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.1304347826086956</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.07023411371237452</v>
       </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
-        <v>0.5</v>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
         <v>0.5168539325842697</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.647887323943662</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.5750000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.5168539325842697</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.647887323943662</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.5750000000000001</v>
       </c>
-      <c r="J3">
-        <v>0.1924119241192412</v>
-      </c>
       <c r="K3">
-        <v>0.5333333333333333</v>
+        <v>0.1924119241192412</v>
       </c>
       <c r="L3">
-        <v>0.7887323943661971</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="M3">
-        <v>0.6363636363636364</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="N3">
-        <v>0.01647940074906362</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O3">
-        <v>0.1408450704225351</v>
+        <v>0.01375831231368951</v>
       </c>
       <c r="P3">
-        <v>0.06136363636363629</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="Q3">
-        <v>0.03188405797101439</v>
+        <v>0.04038461538461535</v>
       </c>
       <c r="R3">
-        <v>0.217391304347826</v>
+        <v>0.02661934338952971</v>
       </c>
       <c r="S3">
-        <v>0.1067193675889327</v>
-      </c>
-      <c r="T3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="T3">
+        <v>0.07023411371237452</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.1955307262569832</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.9859154929577464</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="F4">
-        <v>0.3263403263403263</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="G4">
-        <v>0.1955307262569832</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="H4">
-        <v>0.9859154929577464</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I4">
-        <v>0.3263403263403263</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J4">
-        <v>0.1924119241192412</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K4">
-        <v>0.1972222222222222</v>
+        <v>0.1924119241192412</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="M4">
-        <v>0.3294663573085847</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="N4">
-        <v>0.001691495965239015</v>
+        <v>0.5838509316770187</v>
       </c>
       <c r="O4">
-        <v>0.01408450704225361</v>
+        <v>0.00536828963795255</v>
       </c>
       <c r="P4">
-        <v>0.00312603096825842</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="Q4">
-        <v>0.00865079365079382</v>
+        <v>0.00885093167701867</v>
       </c>
       <c r="R4">
-        <v>0.01428571428571438</v>
+        <v>0.01038647342995167</v>
       </c>
       <c r="S4">
-        <v>0.009579052038449016</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>0.02173913043478258</v>
+      </c>
+      <c r="T4">
+        <v>0.01539292465568464</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="F5">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="G5">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="I5">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="J5">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L5">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="M5">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="N5">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O5">
+        <v>0.01375831231368951</v>
+      </c>
+      <c r="P5">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="Q5">
+        <v>0.04038461538461535</v>
+      </c>
+      <c r="R5">
+        <v>0.02661934338952971</v>
+      </c>
+      <c r="S5">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="T5">
+        <v>0.07023411371237452</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="F6">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="G6">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="I6">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="J6">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L6">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="M6">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="N6">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O6">
+        <v>0.01375831231368951</v>
+      </c>
+      <c r="P6">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="Q6">
+        <v>0.04038461538461535</v>
+      </c>
+      <c r="R6">
+        <v>0.02661934338952971</v>
+      </c>
+      <c r="S6">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="T6">
+        <v>0.07023411371237452</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="F7">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="G7">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="I7">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="J7">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L7">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="N7">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="O7">
+        <v>0.01647940074906362</v>
+      </c>
+      <c r="P7">
+        <v>0.1408450704225351</v>
+      </c>
+      <c r="Q7">
+        <v>0.06136363636363629</v>
+      </c>
+      <c r="R7">
+        <v>0.03188405797101439</v>
+      </c>
+      <c r="S7">
+        <v>0.217391304347826</v>
+      </c>
+      <c r="T7">
+        <v>0.1067193675889327</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="F8">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="G8">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="I8">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="J8">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L8">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="N8">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="O8">
+        <v>0.01647940074906362</v>
+      </c>
+      <c r="P8">
+        <v>0.1408450704225351</v>
+      </c>
+      <c r="Q8">
+        <v>0.06136363636363629</v>
+      </c>
+      <c r="R8">
+        <v>0.03188405797101439</v>
+      </c>
+      <c r="S8">
+        <v>0.217391304347826</v>
+      </c>
+      <c r="T8">
+        <v>0.1067193675889327</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="F9">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="G9">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="I9">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="J9">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L9">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="M9">
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="N9">
+        <v>0.5838509316770187</v>
+      </c>
+      <c r="O9">
+        <v>0.00536828963795255</v>
+      </c>
+      <c r="P9">
+        <v>0.0140845070422535</v>
+      </c>
+      <c r="Q9">
+        <v>0.00885093167701867</v>
+      </c>
+      <c r="R9">
+        <v>0.01038647342995167</v>
+      </c>
+      <c r="S9">
+        <v>0.02173913043478258</v>
+      </c>
+      <c r="T9">
+        <v>0.01539292465568464</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="F10">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="G10">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="I10">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="J10">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L10">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="M10">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="N10">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O10">
+        <v>0.01375831231368951</v>
+      </c>
+      <c r="P10">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="Q10">
+        <v>0.04038461538461535</v>
+      </c>
+      <c r="R10">
+        <v>0.02661934338952971</v>
+      </c>
+      <c r="S10">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="T10">
+        <v>0.07023411371237452</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="F11">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="G11">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="I11">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="J11">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L11">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="N11">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="O11">
+        <v>0.01647940074906362</v>
+      </c>
+      <c r="P11">
+        <v>0.1408450704225351</v>
+      </c>
+      <c r="Q11">
+        <v>0.06136363636363629</v>
+      </c>
+      <c r="R11">
+        <v>0.03188405797101439</v>
+      </c>
+      <c r="S11">
+        <v>0.217391304347826</v>
+      </c>
+      <c r="T11">
+        <v>0.1067193675889327</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
         <v>0.1955307262569832</v>
       </c>
-      <c r="E5">
+      <c r="F12">
         <v>0.9859154929577464</v>
       </c>
-      <c r="F5">
+      <c r="G12">
         <v>0.3263403263403263</v>
       </c>
-      <c r="G5">
+      <c r="H12">
         <v>0.1955307262569832</v>
       </c>
-      <c r="H5">
+      <c r="I12">
         <v>0.9859154929577464</v>
       </c>
-      <c r="I5">
+      <c r="J12">
         <v>0.3263403263403263</v>
       </c>
-      <c r="J5">
-        <v>0.1924119241192412</v>
-      </c>
-      <c r="K5">
+      <c r="K12">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L12">
+        <v>0.1972222222222222</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0.3294663573085847</v>
+      </c>
+      <c r="O12">
+        <v>0.001691495965239015</v>
+      </c>
+      <c r="P12">
+        <v>0.01408450704225361</v>
+      </c>
+      <c r="Q12">
+        <v>0.00312603096825842</v>
+      </c>
+      <c r="R12">
+        <v>0.00865079365079382</v>
+      </c>
+      <c r="S12">
+        <v>0.01428571428571438</v>
+      </c>
+      <c r="T12">
+        <v>0.009579052038449016</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F13">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G13">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H13">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I13">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J13">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K13">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L13">
+        <v>0.1972222222222222</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.3294663573085847</v>
+      </c>
+      <c r="O13">
+        <v>0.001691495965239015</v>
+      </c>
+      <c r="P13">
+        <v>0.01408450704225361</v>
+      </c>
+      <c r="Q13">
+        <v>0.00312603096825842</v>
+      </c>
+      <c r="R13">
+        <v>0.00865079365079382</v>
+      </c>
+      <c r="S13">
+        <v>0.01428571428571438</v>
+      </c>
+      <c r="T13">
+        <v>0.009579052038449016</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F14">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G14">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H14">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I14">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J14">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K14">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L14">
+        <v>0.1972222222222222</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0.3294663573085847</v>
+      </c>
+      <c r="O14">
+        <v>0.001691495965239015</v>
+      </c>
+      <c r="P14">
+        <v>0.01408450704225361</v>
+      </c>
+      <c r="Q14">
+        <v>0.00312603096825842</v>
+      </c>
+      <c r="R14">
+        <v>0.00865079365079382</v>
+      </c>
+      <c r="S14">
+        <v>0.01428571428571438</v>
+      </c>
+      <c r="T14">
+        <v>0.009579052038449016</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F15">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G15">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H15">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I15">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J15">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K15">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L15">
+        <v>0.1972222222222222</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0.3294663573085847</v>
+      </c>
+      <c r="O15">
+        <v>0.001691495965239015</v>
+      </c>
+      <c r="P15">
+        <v>0.01408450704225361</v>
+      </c>
+      <c r="Q15">
+        <v>0.00312603096825842</v>
+      </c>
+      <c r="R15">
+        <v>0.00865079365079382</v>
+      </c>
+      <c r="S15">
+        <v>0.01428571428571438</v>
+      </c>
+      <c r="T15">
+        <v>0.009579052038449016</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F16">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G16">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H16">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I16">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J16">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K16">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L16">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="M16">
+        <v>0.9859154929577465</v>
+      </c>
+      <c r="N16">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="O16">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="P16">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="Q16">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="R16">
+        <v>1.419499438627879E-16</v>
+      </c>
+      <c r="S16">
+        <v>1.126083353548373E-16</v>
+      </c>
+      <c r="T16">
+        <v>1.701020277014972E-16</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F17">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G17">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H17">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I17">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J17">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K17">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L17">
         <v>0.1945205479452055</v>
       </c>
-      <c r="L5">
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="N17">
         <v>0.3256880733944954</v>
       </c>
-      <c r="N5">
+      <c r="O17">
         <v>-0.001010178311777715</v>
       </c>
-      <c r="O5">
+      <c r="P17">
         <v>0.01408450704225361</v>
       </c>
-      <c r="P5">
+      <c r="Q17">
         <v>-0.0006522529458308779</v>
       </c>
-      <c r="Q5">
+      <c r="R17">
         <v>-0.00516634050880603</v>
       </c>
-      <c r="R5">
+      <c r="S17">
         <v>0.01428571428571438</v>
       </c>
-      <c r="S5">
+      <c r="T17">
         <v>-0.001998689384010333</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F18">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G18">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H18">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I18">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J18">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K18">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L18">
+        <v>0.1945205479452055</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0.3256880733944954</v>
+      </c>
+      <c r="O18">
+        <v>-0.001010178311777715</v>
+      </c>
+      <c r="P18">
+        <v>0.01408450704225361</v>
+      </c>
+      <c r="Q18">
+        <v>-0.0006522529458308779</v>
+      </c>
+      <c r="R18">
+        <v>-0.00516634050880603</v>
+      </c>
+      <c r="S18">
+        <v>0.01428571428571438</v>
+      </c>
+      <c r="T18">
+        <v>-0.001998689384010333</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F19">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G19">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H19">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I19">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J19">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K19">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L19">
+        <v>0.1945205479452055</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0.3256880733944954</v>
+      </c>
+      <c r="O19">
+        <v>-0.001010178311777715</v>
+      </c>
+      <c r="P19">
+        <v>0.01408450704225361</v>
+      </c>
+      <c r="Q19">
+        <v>-0.0006522529458308779</v>
+      </c>
+      <c r="R19">
+        <v>-0.00516634050880603</v>
+      </c>
+      <c r="S19">
+        <v>0.01428571428571438</v>
+      </c>
+      <c r="T19">
+        <v>-0.001998689384010333</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F20">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G20">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H20">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I20">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J20">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K20">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L20">
+        <v>0.1945205479452055</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0.3256880733944954</v>
+      </c>
+      <c r="O20">
+        <v>-0.001010178311777715</v>
+      </c>
+      <c r="P20">
+        <v>0.01408450704225361</v>
+      </c>
+      <c r="Q20">
+        <v>-0.0006522529458308779</v>
+      </c>
+      <c r="R20">
+        <v>-0.00516634050880603</v>
+      </c>
+      <c r="S20">
+        <v>0.01428571428571438</v>
+      </c>
+      <c r="T20">
+        <v>-0.001998689384010333</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="F21">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="G21">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="H21">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="I21">
+        <v>0.9859154929577464</v>
+      </c>
+      <c r="J21">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="K21">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L21">
+        <v>0.1955307262569832</v>
+      </c>
+      <c r="M21">
+        <v>0.9859154929577465</v>
+      </c>
+      <c r="N21">
+        <v>0.3263403263403263</v>
+      </c>
+      <c r="O21">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="P21">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="Q21">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="R21">
+        <v>1.419499438627879E-16</v>
+      </c>
+      <c r="S21">
+        <v>1.126083353548373E-16</v>
+      </c>
+      <c r="T21">
+        <v>1.701020277014972E-16</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F22">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G22">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H22">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I22">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J22">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K22">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L22">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M22">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N22">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F23">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G23">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H23">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I23">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J23">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K23">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L23">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M23">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N23">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F24">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G24">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H24">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I24">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J24">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K24">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L24">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M24">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N24">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F25">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G25">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H25">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I25">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J25">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K25">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L25">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M25">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N25">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F26">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G26">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H26">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I26">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J26">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K26">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L26">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M26">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N26">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F27">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G27">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I27">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J27">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K27">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M27">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N27">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F28">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G28">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H28">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I28">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J28">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K28">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L28">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M28">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N28">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F29">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G29">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H29">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I29">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J29">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K29">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L29">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M29">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N29">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F30">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G30">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H30">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I30">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J30">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K30">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L30">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M30">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N30">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F31">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="G31">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="H31">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I31">
+        <v>0.1690140845070422</v>
+      </c>
+      <c r="J31">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="K31">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L31">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M31">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="N31">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>3.284409781182756E-16</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E6">
-        <v>0.1690140845070422</v>
-      </c>
-      <c r="F6">
-        <v>0.2823529411764706</v>
-      </c>
-      <c r="G6">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H6">
-        <v>0.1690140845070422</v>
-      </c>
-      <c r="I6">
-        <v>0.2823529411764706</v>
-      </c>
-      <c r="J6">
-        <v>0.1924119241192412</v>
-      </c>
-      <c r="K6">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L6">
-        <v>0.1690140845070423</v>
-      </c>
-      <c r="M6">
-        <v>0.2823529411764706</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>5.551115123125783E-17</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>3.284409781182756E-16</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F32">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G32">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H32">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I32">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J32">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K32">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L32">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M32">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N32">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q32">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T32">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F33">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G33">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H33">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I33">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J33">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K33">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L33">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M33">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N33">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q33">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T33">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F34">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G34">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H34">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I34">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J34">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K34">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L34">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M34">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N34">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q34">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T34">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F35">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G35">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H35">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I35">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J35">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K35">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L35">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M35">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N35">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q35">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T35">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F36">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G36">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H36">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I36">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J36">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K36">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L36">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M36">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N36">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q36">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T36">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F37">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G37">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H37">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I37">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J37">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K37">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L37">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M37">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N37">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q37">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T37">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E7">
-        <v>0.1690140845070422</v>
-      </c>
-      <c r="F7">
-        <v>0.2823529411764706</v>
-      </c>
-      <c r="G7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H7">
-        <v>0.1690140845070422</v>
-      </c>
-      <c r="I7">
-        <v>0.2823529411764706</v>
-      </c>
-      <c r="J7">
-        <v>0.1924119241192412</v>
-      </c>
-      <c r="K7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L7">
-        <v>0.1690140845070423</v>
-      </c>
-      <c r="M7">
-        <v>0.2823529411764706</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>5.551115123125783E-17</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>3.284409781182756E-16</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F38">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G38">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H38">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I38">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J38">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K38">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L38">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M38">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N38">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q38">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T38">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F39">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G39">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I39">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J39">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K39">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M39">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N39">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q39">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T39">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+      <c r="E40">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F40">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="G40">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="H40">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I40">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="J40">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K40">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L40">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M40">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="N40">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="Q40">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1.970645868709653E-16</v>
+      </c>
+      <c r="T40">
+        <v>2.164934898019055E-16</v>
+      </c>
+      <c r="U40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
         <v>0.7142857142857143</v>
       </c>
-      <c r="E8">
+      <c r="F41">
         <v>0.0704225352112676</v>
       </c>
-      <c r="F8">
+      <c r="G41">
         <v>0.1282051282051282</v>
       </c>
-      <c r="G8">
+      <c r="H41">
         <v>0.7142857142857143</v>
       </c>
-      <c r="H8">
+      <c r="I41">
         <v>0.0704225352112676</v>
       </c>
-      <c r="I8">
+      <c r="J41">
         <v>0.1282051282051282</v>
       </c>
-      <c r="J8">
-        <v>0.1924119241192412</v>
-      </c>
-      <c r="K8">
+      <c r="K41">
+        <v>0.1924119241192412</v>
+      </c>
+      <c r="L41">
         <v>0.7142857142857143</v>
       </c>
-      <c r="L8">
+      <c r="M41">
         <v>0.07042253521126761</v>
       </c>
-      <c r="M8">
+      <c r="N41">
         <v>0.1282051282051282</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>1.387778780781446E-17</v>
       </c>
-      <c r="P8">
+      <c r="Q41">
         <v>2.775557561562891E-17</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>1.970645868709653E-16</v>
       </c>
-      <c r="S8">
+      <c r="T41">
         <v>2.164934898019055E-16</v>
       </c>
-      <c r="T8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E9">
-        <v>0.0704225352112676</v>
-      </c>
-      <c r="F9">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="G9">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H9">
-        <v>0.0704225352112676</v>
-      </c>
-      <c r="I9">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="J9">
-        <v>0.1924119241192412</v>
-      </c>
-      <c r="K9">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L9">
-        <v>0.07042253521126761</v>
-      </c>
-      <c r="M9">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1.387778780781446E-17</v>
-      </c>
-      <c r="P9">
-        <v>2.775557561562891E-17</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1.970645868709653E-16</v>
-      </c>
-      <c r="S9">
-        <v>2.164934898019055E-16</v>
-      </c>
-      <c r="T9" t="s">
-        <v>29</v>
+      <c r="U41" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
